--- a/biology/Botanique/Philydraceae/Philydraceae.xlsx
+++ b/biology/Botanique/Philydraceae/Philydraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Philydracées regroupe des plantes monocotylédones ; elle comprend 5 à 6 espèces réparties en 1 à 4 genres.
 Ce sont des plantes herbacées, pérennes, rhizomateuses ou à racines épaissies, à rosettes, des  régions subtropicales à tropicales. (Malaisie, Asie du Sud-Est, Australie).
-La classification phylogénétique APG II (2003)[1] et la classification phylogénétique APG III (2009)[2] placent aujourd'hui cette famille dans l'ordre des Commelinales.
+La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) placent aujourd'hui cette famille dans l'ordre des Commelinales.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Philydrum dérivé du grec φίλος / philos, ami, et υδώρ / hydor, eau[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Philydrum dérivé du grec φίλος / philos, ami, et υδώρ / hydor, eau.
 </t>
         </is>
       </c>
@@ -544,18 +558,20 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 août 2015)[4], Angiosperm Phylogeny Website                        (14 août 2015)[5] et NCBI  (14 août 2015)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 août 2015), Angiosperm Phylogeny Website                        (14 août 2015) et NCBI  (14 août 2015) :
 genre Helmholtzia  F.Muell. (1866)
 genre Philydrella  Caruel (1878)
 genre Philydrum (en)  Banks &amp; Sol. ex Gaertn. (1788)
-Selon DELTA Angio           (14 août 2015)[7] :
+Selon DELTA Angio           (14 août 2015) :
 genre Helmholtzia
 genre Philydrum
 genre Orthothylax
 genre Philydrella
-Selon ITIS      (14 août 2015)[8] :
+Selon ITIS      (14 août 2015) :
 genre Philydrum  Caruel</t>
         </is>
       </c>
@@ -584,9 +600,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 avr. 2010)[9] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 avr. 2010) :
 genre Helmholtzia  F.Muell. (1866)
 Helmholtzia acorifolia  F.Muell. (1866)
 Helmholtzia glaberrima  (Hook.f.) Caruel (1881)
@@ -596,7 +614,7 @@
 Philydrella pygmaea  (R.Br.) Caruel (1881)
 genre Philydrum  Banks &amp; Sol. ex Gaertn. (1788)
 Philydrum lanuginosum  Banks &amp; Sol. ex Gaertn. (1788)
-Selon NCBI  (19 avr. 2010)[10] :
+Selon NCBI  (19 avr. 2010) :
 genre Helmholtzia
 Helmholtzia acorifolia
 Helmholtzia glaberrima
